--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H2">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I2">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J2">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.194886817819917</v>
+        <v>0.1493526666666667</v>
       </c>
       <c r="N2">
-        <v>0.194886817819917</v>
+        <v>0.448058</v>
       </c>
       <c r="O2">
-        <v>0.004339774436469623</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="P2">
-        <v>0.004339774436469623</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="Q2">
-        <v>6.577364863853435</v>
+        <v>5.047001232938888</v>
       </c>
       <c r="R2">
-        <v>6.577364863853435</v>
+        <v>45.42301109644999</v>
       </c>
       <c r="S2">
-        <v>0.002564399968316892</v>
+        <v>0.001930849938314907</v>
       </c>
       <c r="T2">
-        <v>0.002564399968316892</v>
+        <v>0.001930849938314907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H3">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I3">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J3">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.4344536477185</v>
+        <v>0.195178</v>
       </c>
       <c r="N3">
-        <v>22.4344536477185</v>
+        <v>0.585534</v>
       </c>
       <c r="O3">
-        <v>0.4995744172214679</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="P3">
-        <v>0.4995744172214679</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="Q3">
-        <v>757.1553007684849</v>
+        <v>6.595554191483332</v>
       </c>
       <c r="R3">
-        <v>757.1553007684849</v>
+        <v>59.35998772335</v>
       </c>
       <c r="S3">
-        <v>0.2952016604662143</v>
+        <v>0.002523285574147277</v>
       </c>
       <c r="T3">
-        <v>0.2952016604662143</v>
+        <v>0.002523285574147277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H4">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I4">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J4">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.2777902328156</v>
+        <v>22.51044533333333</v>
       </c>
       <c r="N4">
-        <v>22.2777902328156</v>
+        <v>67.531336</v>
       </c>
       <c r="O4">
-        <v>0.4960858083420625</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="P4">
-        <v>0.4960858083420625</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="Q4">
-        <v>751.8679629579524</v>
+        <v>760.6844115137111</v>
       </c>
       <c r="R4">
-        <v>751.8679629579524</v>
+        <v>6846.159703623399</v>
       </c>
       <c r="S4">
-        <v>0.2931402195708909</v>
+        <v>0.2910178502558223</v>
       </c>
       <c r="T4">
-        <v>0.2931402195708909</v>
+        <v>0.2910178502558224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9419353101778</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H5">
-        <v>14.9419353101778</v>
+        <v>101.377525</v>
       </c>
       <c r="I5">
-        <v>0.2616109921017262</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J5">
-        <v>0.2616109921017262</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.194886817819917</v>
+        <v>22.542202</v>
       </c>
       <c r="N5">
-        <v>0.194886817819917</v>
+        <v>67.626606</v>
       </c>
       <c r="O5">
-        <v>0.004339774436469623</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="P5">
-        <v>0.004339774436469623</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="Q5">
-        <v>2.911986224671606</v>
+        <v>761.7575489366833</v>
       </c>
       <c r="R5">
-        <v>2.911986224671606</v>
+        <v>6855.817940430149</v>
       </c>
       <c r="S5">
-        <v>0.001135332695822528</v>
+        <v>0.2914284044109167</v>
       </c>
       <c r="T5">
-        <v>0.001135332695822528</v>
+        <v>0.2914284044109167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9419353101778</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H6">
-        <v>14.9419353101778</v>
+        <v>101.377525</v>
       </c>
       <c r="I6">
-        <v>0.2616109921017262</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J6">
-        <v>0.2616109921017262</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>22.4344536477185</v>
+        <v>0.1054956666666667</v>
       </c>
       <c r="N6">
-        <v>22.4344536477185</v>
+        <v>0.316487</v>
       </c>
       <c r="O6">
-        <v>0.4995744172214679</v>
+        <v>0.002318449844057149</v>
       </c>
       <c r="P6">
-        <v>0.4995744172214679</v>
+        <v>0.002318449844057149</v>
       </c>
       <c r="Q6">
-        <v>335.2141551233922</v>
+        <v>3.564963194963888</v>
       </c>
       <c r="R6">
-        <v>335.2141551233922</v>
+        <v>32.08466875467499</v>
       </c>
       <c r="S6">
-        <v>0.1306941589179499</v>
+        <v>0.001363861161785907</v>
       </c>
       <c r="T6">
-        <v>0.1306941589179499</v>
+        <v>0.001363861161785907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H7">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>22.2777902328156</v>
+        <v>0.1493526666666667</v>
       </c>
       <c r="N7">
-        <v>22.2777902328156</v>
+        <v>0.448058</v>
       </c>
       <c r="O7">
-        <v>0.4960858083420625</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="P7">
-        <v>0.4960858083420625</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="Q7">
-        <v>332.8733005124416</v>
+        <v>2.231855158797333</v>
       </c>
       <c r="R7">
-        <v>332.8733005124416</v>
+        <v>20.086696429176</v>
       </c>
       <c r="S7">
-        <v>0.1297815004879538</v>
+        <v>0.0008538490871701789</v>
       </c>
       <c r="T7">
-        <v>0.1297815004879538</v>
+        <v>0.0008538490871701791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.36579404287518</v>
+        <v>14.943524</v>
       </c>
       <c r="H8">
-        <v>1.36579404287518</v>
+        <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J8">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.194886817819917</v>
+        <v>0.195178</v>
       </c>
       <c r="N8">
-        <v>0.194886817819917</v>
+        <v>0.585534</v>
       </c>
       <c r="O8">
-        <v>0.004339774436469623</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="P8">
-        <v>0.004339774436469623</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="Q8">
-        <v>0.2661752548133431</v>
+        <v>2.916647127272</v>
       </c>
       <c r="R8">
-        <v>0.2661752548133431</v>
+        <v>26.249824145448</v>
       </c>
       <c r="S8">
-        <v>0.000103777094495892</v>
+        <v>0.00111583248464954</v>
       </c>
       <c r="T8">
-        <v>0.000103777094495892</v>
+        <v>0.00111583248464954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.36579404287518</v>
+        <v>14.943524</v>
       </c>
       <c r="H9">
-        <v>1.36579404287518</v>
+        <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J9">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.4344536477185</v>
+        <v>22.51044533333333</v>
       </c>
       <c r="N9">
-        <v>22.4344536477185</v>
+        <v>67.531336</v>
       </c>
       <c r="O9">
-        <v>0.4995744172214679</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="P9">
-        <v>0.4995744172214679</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="Q9">
-        <v>30.64084314721328</v>
+        <v>336.3853800893547</v>
       </c>
       <c r="R9">
-        <v>30.64084314721328</v>
+        <v>3027.468420804192</v>
       </c>
       <c r="S9">
-        <v>0.01194633091251109</v>
+        <v>0.1286921996683078</v>
       </c>
       <c r="T9">
-        <v>0.01194633091251109</v>
+        <v>0.1286921996683078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36579404287518</v>
+        <v>14.943524</v>
       </c>
       <c r="H10">
-        <v>1.36579404287518</v>
+        <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J10">
-        <v>0.02391301576040297</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.2777902328156</v>
+        <v>22.542202</v>
       </c>
       <c r="N10">
-        <v>22.2777902328156</v>
+        <v>67.626606</v>
       </c>
       <c r="O10">
-        <v>0.4960858083420625</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="P10">
-        <v>0.4960858083420625</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="Q10">
-        <v>30.42687318840242</v>
+        <v>336.859936599848</v>
       </c>
       <c r="R10">
-        <v>30.42687318840242</v>
+        <v>3031.739429398632</v>
       </c>
       <c r="S10">
-        <v>0.01186290775339599</v>
+        <v>0.1288737525086425</v>
       </c>
       <c r="T10">
-        <v>0.01186290775339599</v>
+        <v>0.1288737525086425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57171355887276</v>
+        <v>14.943524</v>
       </c>
       <c r="H11">
-        <v>2.57171355887276</v>
+        <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J11">
-        <v>0.0450268671073612</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.194886817819917</v>
+        <v>0.1054956666666667</v>
       </c>
       <c r="N11">
-        <v>0.194886817819917</v>
+        <v>0.316487</v>
       </c>
       <c r="O11">
-        <v>0.004339774436469623</v>
+        <v>0.002318449844057149</v>
       </c>
       <c r="P11">
-        <v>0.004339774436469623</v>
+        <v>0.002318449844057149</v>
       </c>
       <c r="Q11">
-        <v>0.501193071833046</v>
+        <v>1.576477026729333</v>
       </c>
       <c r="R11">
-        <v>0.501193071833046</v>
+        <v>14.188293240564</v>
       </c>
       <c r="S11">
-        <v>0.0001954064468268411</v>
+        <v>0.0006031186499319918</v>
       </c>
       <c r="T11">
-        <v>0.0001954064468268411</v>
+        <v>0.000603118649931992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57171355887276</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H12">
-        <v>2.57171355887276</v>
+        <v>4.419547</v>
       </c>
       <c r="I12">
-        <v>0.0450268671073612</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J12">
-        <v>0.0450268671073612</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>22.4344536477185</v>
+        <v>0.1493526666666667</v>
       </c>
       <c r="N12">
-        <v>22.4344536477185</v>
+        <v>0.448058</v>
       </c>
       <c r="O12">
-        <v>0.4995744172214679</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="P12">
-        <v>0.4995744172214679</v>
+        <v>0.0032822833172565</v>
       </c>
       <c r="Q12">
-        <v>57.69498863174011</v>
+        <v>0.2200237099695555</v>
       </c>
       <c r="R12">
-        <v>57.69498863174011</v>
+        <v>1.980213389726</v>
       </c>
       <c r="S12">
-        <v>0.02249427089446845</v>
+        <v>8.41752849295722E-05</v>
       </c>
       <c r="T12">
-        <v>0.02249427089446845</v>
+        <v>8.417528492957222E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57171355887276</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H13">
-        <v>2.57171355887276</v>
+        <v>4.419547</v>
       </c>
       <c r="I13">
-        <v>0.0450268671073612</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J13">
-        <v>0.0450268671073612</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.2777902328156</v>
+        <v>0.195178</v>
       </c>
       <c r="N13">
-        <v>22.2777902328156</v>
+        <v>0.585534</v>
       </c>
       <c r="O13">
-        <v>0.4960858083420625</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="P13">
-        <v>0.4960858083420625</v>
+        <v>0.004289374321820987</v>
       </c>
       <c r="Q13">
-        <v>57.29209520345502</v>
+        <v>0.2875327814553333</v>
       </c>
       <c r="R13">
-        <v>57.29209520345502</v>
+        <v>2.587795033098</v>
       </c>
       <c r="S13">
-        <v>0.02233718976606591</v>
+        <v>0.0001100024802278994</v>
       </c>
       <c r="T13">
-        <v>0.02233718976606591</v>
+        <v>0.0001100024802278994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48598164784237</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H14">
-        <v>4.48598164784237</v>
+        <v>4.419547</v>
       </c>
       <c r="I14">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J14">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.194886817819917</v>
+        <v>22.51044533333333</v>
       </c>
       <c r="N14">
-        <v>0.194886817819917</v>
+        <v>67.531336</v>
       </c>
       <c r="O14">
-        <v>0.004339774436469623</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="P14">
-        <v>0.004339774436469623</v>
+        <v>0.4947059924046515</v>
       </c>
       <c r="Q14">
-        <v>0.8742586881465471</v>
+        <v>33.16199038053244</v>
       </c>
       <c r="R14">
-        <v>0.8742586881465471</v>
+        <v>298.457913424792</v>
       </c>
       <c r="S14">
-        <v>0.0003408582310074703</v>
+        <v>0.01268690537714911</v>
       </c>
       <c r="T14">
-        <v>0.0003408582310074703</v>
+        <v>0.01268690537714912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48598164784237</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H15">
-        <v>4.48598164784237</v>
+        <v>4.419547</v>
       </c>
       <c r="I15">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J15">
-        <v>0.07854284502508757</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.4344536477185</v>
+        <v>22.542202</v>
       </c>
       <c r="N15">
-        <v>22.4344536477185</v>
+        <v>67.626606</v>
       </c>
       <c r="O15">
-        <v>0.4995744172214679</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="P15">
-        <v>0.4995744172214679</v>
+        <v>0.4954039001122139</v>
       </c>
       <c r="Q15">
-        <v>100.6405473430355</v>
+        <v>33.20877374083133</v>
       </c>
       <c r="R15">
-        <v>100.6405473430355</v>
+        <v>298.878963667482</v>
       </c>
       <c r="S15">
-        <v>0.03923799603032419</v>
+        <v>0.01270480346042235</v>
       </c>
       <c r="T15">
-        <v>0.03923799603032419</v>
+        <v>0.01270480346042235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.473182333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.419547</v>
+      </c>
+      <c r="I16">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="J16">
+        <v>0.02564534404663465</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1054956666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.316487</v>
+      </c>
+      <c r="O16">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="P16">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="Q16">
+        <v>0.1554143523765555</v>
+      </c>
+      <c r="R16">
+        <v>1.398729171389</v>
+      </c>
+      <c r="S16">
+        <v>5.945744390571202E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.945744390571204E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.48598164784237</v>
-      </c>
-      <c r="H16">
-        <v>4.48598164784237</v>
-      </c>
-      <c r="I16">
-        <v>0.07854284502508757</v>
-      </c>
-      <c r="J16">
-        <v>0.07854284502508757</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>22.2777902328156</v>
-      </c>
-      <c r="N16">
-        <v>22.2777902328156</v>
-      </c>
-      <c r="O16">
-        <v>0.4960858083420625</v>
-      </c>
-      <c r="P16">
-        <v>0.4960858083420625</v>
-      </c>
-      <c r="Q16">
-        <v>99.93775813889278</v>
-      </c>
-      <c r="R16">
-        <v>99.93775813889278</v>
-      </c>
-      <c r="S16">
-        <v>0.0389639907637559</v>
-      </c>
-      <c r="T16">
-        <v>0.0389639907637559</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H17">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J17">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1493526666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.448058</v>
+      </c>
+      <c r="O17">
+        <v>0.0032822833172565</v>
+      </c>
+      <c r="P17">
+        <v>0.0032822833172565</v>
+      </c>
+      <c r="Q17">
+        <v>0.4002819239495556</v>
+      </c>
+      <c r="R17">
+        <v>3.602537315546</v>
+      </c>
+      <c r="S17">
+        <v>0.0001531373369046153</v>
+      </c>
+      <c r="T17">
+        <v>0.0001531373369046153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H18">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J18">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.195178</v>
+      </c>
+      <c r="N18">
+        <v>0.585534</v>
+      </c>
+      <c r="O18">
+        <v>0.004289374321820987</v>
+      </c>
+      <c r="P18">
+        <v>0.004289374321820987</v>
+      </c>
+      <c r="Q18">
+        <v>0.5230989649953334</v>
+      </c>
+      <c r="R18">
+        <v>4.707890684958</v>
+      </c>
+      <c r="S18">
+        <v>0.0002001239067868603</v>
+      </c>
+      <c r="T18">
+        <v>0.0002001239067868603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H19">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J19">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.51044533333333</v>
+      </c>
+      <c r="N19">
+        <v>67.531336</v>
+      </c>
+      <c r="O19">
+        <v>0.4947059924046515</v>
+      </c>
+      <c r="P19">
+        <v>0.4947059924046515</v>
+      </c>
+      <c r="Q19">
+        <v>60.33052216669245</v>
+      </c>
+      <c r="R19">
+        <v>542.9746995002321</v>
+      </c>
+      <c r="S19">
+        <v>0.02308087112081646</v>
+      </c>
+      <c r="T19">
+        <v>0.02308087112081646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H20">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J20">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>22.542202</v>
+      </c>
+      <c r="N20">
+        <v>67.626606</v>
+      </c>
+      <c r="O20">
+        <v>0.4954039001122139</v>
+      </c>
+      <c r="P20">
+        <v>0.4954039001122139</v>
+      </c>
+      <c r="Q20">
+        <v>60.41563360069134</v>
+      </c>
+      <c r="R20">
+        <v>543.740702406222</v>
+      </c>
+      <c r="S20">
+        <v>0.02311343251707967</v>
+      </c>
+      <c r="T20">
+        <v>0.02311343251707967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.680112333333334</v>
+      </c>
+      <c r="H21">
+        <v>8.040337000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="J21">
+        <v>0.0466557338604808</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1054956666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.316487</v>
+      </c>
+      <c r="O21">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="P21">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="Q21">
+        <v>0.2827402373465556</v>
+      </c>
+      <c r="R21">
+        <v>2.544662136119</v>
+      </c>
+      <c r="S21">
+        <v>0.0001081689788932035</v>
+      </c>
+      <c r="T21">
+        <v>0.0001081689788932036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H22">
+        <v>13.665328</v>
+      </c>
+      <c r="I22">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J22">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1493526666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.448058</v>
+      </c>
+      <c r="O22">
+        <v>0.0032822833172565</v>
+      </c>
+      <c r="P22">
+        <v>0.0032822833172565</v>
+      </c>
+      <c r="Q22">
+        <v>0.6803177258915555</v>
+      </c>
+      <c r="R22">
+        <v>6.122859533024</v>
+      </c>
+      <c r="S22">
+        <v>0.0002602716699372269</v>
+      </c>
+      <c r="T22">
+        <v>0.0002602716699372269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H23">
+        <v>13.665328</v>
+      </c>
+      <c r="I23">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J23">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.195178</v>
+      </c>
+      <c r="N23">
+        <v>0.585534</v>
+      </c>
+      <c r="O23">
+        <v>0.004289374321820987</v>
+      </c>
+      <c r="P23">
+        <v>0.004289374321820987</v>
+      </c>
+      <c r="Q23">
+        <v>0.8890571294613333</v>
+      </c>
+      <c r="R23">
+        <v>8.001514165152001</v>
+      </c>
+      <c r="S23">
+        <v>0.00034012987600941</v>
+      </c>
+      <c r="T23">
+        <v>0.00034012987600941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H24">
+        <v>13.665328</v>
+      </c>
+      <c r="I24">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J24">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.51044533333333</v>
+      </c>
+      <c r="N24">
+        <v>67.531336</v>
+      </c>
+      <c r="O24">
+        <v>0.4947059924046515</v>
+      </c>
+      <c r="P24">
+        <v>0.4947059924046515</v>
+      </c>
+      <c r="Q24">
+        <v>102.5375396353564</v>
+      </c>
+      <c r="R24">
+        <v>922.8378567182079</v>
+      </c>
+      <c r="S24">
+        <v>0.03922816598255576</v>
+      </c>
+      <c r="T24">
+        <v>0.03922816598255577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H25">
+        <v>13.665328</v>
+      </c>
+      <c r="I25">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J25">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.542202</v>
+      </c>
+      <c r="N25">
+        <v>67.626606</v>
+      </c>
+      <c r="O25">
+        <v>0.4954039001122139</v>
+      </c>
+      <c r="P25">
+        <v>0.4954039001122139</v>
+      </c>
+      <c r="Q25">
+        <v>102.6821947240853</v>
+      </c>
+      <c r="R25">
+        <v>924.139752516768</v>
+      </c>
+      <c r="S25">
+        <v>0.0392835072151527</v>
+      </c>
+      <c r="T25">
+        <v>0.0392835072151527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.555109333333333</v>
+      </c>
+      <c r="H26">
+        <v>13.665328</v>
+      </c>
+      <c r="I26">
+        <v>0.07929591835319542</v>
+      </c>
+      <c r="J26">
+        <v>0.07929591835319544</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1054956666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.316487</v>
+      </c>
+      <c r="O26">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="P26">
+        <v>0.002318449844057149</v>
+      </c>
+      <c r="Q26">
+        <v>0.4805442958595555</v>
+      </c>
+      <c r="R26">
+        <v>4.324898662736</v>
+      </c>
+      <c r="S26">
+        <v>0.0001838436095403343</v>
+      </c>
+      <c r="T26">
+        <v>0.0001838436095403344</v>
       </c>
     </row>
   </sheetData>
